--- a/TS - ALFI - JUNI 2022.xlsx
+++ b/TS - ALFI - JUNI 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data BOSNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC5DBA-1980-4E72-BE04-3F6D99FAFC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A6A52-8F71-425A-BF82-D2A510B959F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,41 +481,128 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,30 +610,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,69 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -653,17 +653,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1119,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
@@ -1142,116 +1132,116 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="67"/>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
       <c r="I1" s="69"/>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:15" ht="52.5" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="70"/>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
       <c r="I2" s="72"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="12">
-      <c r="A5" s="52">
+      <c r="A5" s="29">
         <v>44725</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D5" s="32" t="str">
+      <c r="D5" s="42" t="str">
         <f>TEXT(C5-B5,"h")</f>
         <v>9</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="11" t="s">
         <v>35</v>
       </c>
@@ -1262,221 +1252,221 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="12">
-      <c r="A6" s="53"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="21" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="12">
-      <c r="A7" s="53"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="21" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="12">
-      <c r="A8" s="54"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="21" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="12">
-      <c r="A9" s="52">
+      <c r="A9" s="29">
         <v>44726</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D9" s="32" t="str">
+      <c r="D9" s="42" t="str">
         <f>TEXT(C9-B9,"h")</f>
         <v>9</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:15" ht="12">
-      <c r="A10" s="53"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="21" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="1:15" ht="12">
-      <c r="A11" s="53"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="21" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:15" ht="12">
-      <c r="A12" s="53"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="21" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="1:15" ht="12">
-      <c r="A13" s="53"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="21" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="63"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:15" ht="12">
-      <c r="A14" s="53"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="21" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:15" ht="12">
-      <c r="A15" s="53"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="21" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:15" ht="12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="21" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="12">
-      <c r="A17" s="52">
+      <c r="A17" s="29">
         <v>44727</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D17" s="32" t="str">
+      <c r="D17" s="42" t="str">
         <f t="shared" ref="D17:D59" si="0">TEXT(C17-B17,"h")</f>
         <v>9</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1484,44 +1474,44 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="12">
-      <c r="A18" s="53"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="24" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1">
-      <c r="A19" s="52">
+      <c r="A19" s="29">
         <v>44728</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D19" s="32" t="str">
+      <c r="D19" s="42" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="73" t="s">
         <v>38</v>
       </c>
@@ -1529,42 +1519,42 @@
       <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
       <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
-      <c r="A21" s="52">
+      <c r="A21" s="29">
         <v>44729</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D21" s="32" t="str">
+      <c r="D21" s="42" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="73" t="s">
         <v>38</v>
       </c>
@@ -1572,42 +1562,42 @@
       <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1">
-      <c r="A23" s="52">
+      <c r="A23" s="29">
         <v>44732</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="32" t="str">
+      <c r="D23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="11" t="s">
         <v>32</v>
       </c>
@@ -1615,42 +1605,42 @@
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1">
-      <c r="A25" s="52">
+      <c r="A25" s="29">
         <v>44733</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="31">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D25" s="32" t="str">
+      <c r="D25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1658,44 +1648,44 @@
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="21" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>44734</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="11" t="s">
         <v>32</v>
       </c>
@@ -1703,42 +1693,42 @@
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>44735</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="11" t="s">
         <v>32</v>
       </c>
@@ -1746,42 +1736,42 @@
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>44736</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="11" t="s">
         <v>32</v>
       </c>
@@ -1789,42 +1779,42 @@
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="14"/>
       <c r="K32" s="15"/>
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>44739</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="11" t="s">
         <v>32</v>
       </c>
@@ -1832,42 +1822,42 @@
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="14"/>
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>44740</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="11" t="s">
         <v>32</v>
       </c>
@@ -1875,42 +1865,42 @@
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
       <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" ht="12" customHeight="1">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>44741</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D37" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="11" t="s">
         <v>32</v>
       </c>
@@ -1918,42 +1908,42 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="12" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="14"/>
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
     </row>
     <row r="39" spans="1:12" ht="12" customHeight="1">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>44742</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D39" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="11" t="s">
         <v>32</v>
       </c>
@@ -1961,42 +1951,42 @@
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="12" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
       <c r="L40" s="16"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>44743</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D41" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="11" t="s">
         <v>32</v>
       </c>
@@ -2004,42 +1994,42 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>44746</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D43" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="11" t="s">
         <v>32</v>
       </c>
@@ -2047,42 +2037,42 @@
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
       <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>44746</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D45" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="11" t="s">
         <v>32</v>
       </c>
@@ -2090,42 +2080,42 @@
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>44747</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D47" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="11" t="s">
         <v>32</v>
       </c>
@@ -2133,42 +2123,42 @@
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
       <c r="L48" s="16"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>44748</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="11" t="s">
         <v>32</v>
       </c>
@@ -2176,42 +2166,42 @@
       <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>44749</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="11" t="s">
         <v>32</v>
       </c>
@@ -2219,42 +2209,42 @@
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
       <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="19">
+      <c r="A53" s="18">
         <v>44750</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="26"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="11" t="s">
         <v>32</v>
       </c>
@@ -2262,42 +2252,42 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="19">
+      <c r="A55" s="18">
         <v>44753</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D55" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
       <c r="J55" s="11" t="s">
         <v>32</v>
       </c>
@@ -2305,42 +2295,42 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
       <c r="L56" s="16"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="19">
+      <c r="A57" s="18">
         <v>44754</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D57" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="11" t="s">
         <v>32</v>
       </c>
@@ -2348,95 +2338,95 @@
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="19">
+    <row r="59" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A59" s="18">
         <v>44755</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="D59" s="17" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="26"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K59" s="12"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
+    <row r="60" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12" ht="87.75" customHeight="1">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="58" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="60"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="52"/>
     </row>
     <row r="62" spans="1:12" ht="11.1" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="55" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="57"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="49"/>
     </row>
     <row r="63" spans="1:12" ht="12.75">
       <c r="A63" s="2"/>
@@ -2529,10 +2519,6 @@
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="J19:L20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
@@ -2562,6 +2548,11 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="J3:L4"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F3:I4"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A9:A16"/>
@@ -2582,15 +2573,10 @@
     <mergeCell ref="J27:L28"/>
     <mergeCell ref="F33:I34"/>
     <mergeCell ref="F35:I36"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F3:I4"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
@@ -2600,6 +2586,10 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
@@ -2610,6 +2600,15 @@
     <mergeCell ref="F23:I24"/>
     <mergeCell ref="F19:I20"/>
     <mergeCell ref="F21:I22"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
@@ -2648,15 +2647,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
     <mergeCell ref="J29:L30"/>
     <mergeCell ref="J31:L32"/>
     <mergeCell ref="J33:L34"/>
@@ -2668,37 +2658,37 @@
     <mergeCell ref="D41:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9">
-    <cfRule type="timePeriod" dxfId="7" priority="11" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="6" priority="11" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="timePeriod" dxfId="6" priority="7" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="5" priority="7" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D17,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D17,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D19,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D19,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D21,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D21,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 D25 D27">
-    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D23,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D23,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D59">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D29,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D29,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
